--- a/biology/Botanique/Liste_des_formations_végétales/Liste_des_formations_végétales.xlsx
+++ b/biology/Botanique/Liste_des_formations_végétales/Liste_des_formations_végétales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_formations_v%C3%A9g%C3%A9tales</t>
+          <t>Liste_des_formations_végétales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une formation végétale (voir article spécifique) est une communauté d'espèces végétales qui détermine, avec d'autres éléments, un paysage caractéristique qui est souvent gratifié d'un nom particulier par les populations qui le fréquentent ou les scientifiques qui l'étudient.
 Cet article recense les termes désignant des formations végétales ou des milieux naturels ou artificiels dont la flore et la végétation sont spécifiques ou caractéristiques. Ces dénominations peuvent donc tout aussi bien désigner des formations très limitées (bosquet) que des ensembles biogéographiques de très grande extension (toundra).
@@ -524,7 +536,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_formations_v%C3%A9g%C3%A9tales</t>
+          <t>Liste_des_formations_végétales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -542,7 +554,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Acheb (nord Sahara) - Végétation basse éphémère apparaissant après la pluie.
 Agropyraie - Groupement littoral où domine l'agropyrum (Elymus farctus).
@@ -565,7 +579,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_formations_v%C3%A9g%C3%A9tales</t>
+          <t>Liste_des_formations_végétales</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -583,7 +597,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bambouseraie - Peuplement de bambous
 Bananeraie : plantation de bananiers
@@ -614,7 +630,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_formations_v%C3%A9g%C3%A9tales</t>
+          <t>Liste_des_formations_végétales</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -632,7 +648,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Caatinga (Nordeste, Brésil) - Végétation à épineux et cactées
 Cacaoyère - Plantation de cacaoyers (Theobroma cacao)
@@ -681,7 +699,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_formations_v%C3%A9g%C3%A9tales</t>
+          <t>Liste_des_formations_végétales</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -699,7 +717,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Daya (Afrique du Nord) - Dépression humide à bétoum (Pistacia atlantica) et jujubier (Ziziphus lotus)
 Désert
@@ -715,7 +735,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_formations_v%C3%A9g%C3%A9tales</t>
+          <t>Liste_des_formations_végétales</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -733,7 +753,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Engane (sud de la France) - Population de salicornes buissonnantes
 Érablière - Population d'érables, en particulier Acer saccharum en Amérique du Nord
@@ -748,7 +770,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_formations_v%C3%A9g%C3%A9tales</t>
+          <t>Liste_des_formations_végétales</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -766,9 +788,11 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Fagabiétaie : hêtraie-sapinière, forêt mixte codominée par les hêtres et, en moindre proportion, par les sapins (Hêtre commun et Sapin commun sont les espèces forestières de la montagne médio-européenne)[1]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Fagabiétaie : hêtraie-sapinière, forêt mixte codominée par les hêtres et, en moindre proportion, par les sapins (Hêtre commun et Sapin commun sont les espèces forestières de la montagne médio-européenne)
 Fagne (Gironde, France, et Belgique) - Tourbière
 Faulde - En forêt, ancienne charbonnière où poussent des bouleaux, des trembles (Populus tremula) et la mousse Funaria hygrometrica
 Favière - Champ de fèves (Vicia faba)
@@ -792,7 +816,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_des_formations_v%C3%A9g%C3%A9tales</t>
+          <t>Liste_des_formations_végétales</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -810,7 +834,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Garancière - Terrain cultivé en garance (Rubia tinctorum)
 Garrigue
@@ -827,7 +853,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_des_formations_v%C3%A9g%C3%A9tales</t>
+          <t>Liste_des_formations_végétales</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -845,7 +871,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Haie
 hémicryptophytaie - Population d'hémicryptophytes
@@ -863,7 +891,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_des_formations_v%C3%A9g%C3%A9tales</t>
+          <t>Liste_des_formations_végétales</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -881,7 +909,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Igapo (Brésil) - Forêt marécageuse
 Iliçaie - Population pure de houx (Ilex aquifolium)
@@ -897,7 +927,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_des_formations_v%C3%A9g%C3%A9tales</t>
+          <t>Liste_des_formations_végétales</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -915,7 +945,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Jachère
 Jalca
@@ -934,7 +966,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_des_formations_v%C3%A9g%C3%A9tales</t>
+          <t>Liste_des_formations_végétales</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -952,12 +984,14 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Lagune
 Lande - Lande : d'ajoncs (Ulex)
 Lariçaie - Peuplement de mélèze, naturel ou cultivé
-Laurisylve (Macaronésie) - Forêt où dominent des lauracées, comme Persea indica, le laurier des Açores Laurus azorica ou le Laurier des Canaries Laurus novocanariensis)[2]
+Laurisylve (Macaronésie) - Forêt où dominent des lauracées, comme Persea indica, le laurier des Açores Laurus azorica ou le Laurier des Canaries Laurus novocanariensis)
 Lavandaie - Peuplement de lavande, naturel ou cultivé
 Lido
 Linière - Champ de lin (Linum usitatissimum)
@@ -974,7 +1008,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_des_formations_v%C3%A9g%C3%A9tales</t>
+          <t>Liste_des_formations_végétales</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -992,7 +1026,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Mallee (Australie)
 Mangrove
@@ -1018,7 +1054,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_des_formations_v%C3%A9g%C3%A9tales</t>
+          <t>Liste_des_formations_végétales</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1036,9 +1072,11 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Nardaie (montagnes) - Prairie de pâturage extensif, qui contient des formations végétales herbacées, se développant sur des sols relativement pauvres en éléments nutritifs, et dominée par le nard raide (Nardus stricta)[3],[4]
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Nardaie (montagnes) - Prairie de pâturage extensif, qui contient des formations végétales herbacées, se développant sur des sols relativement pauvres en éléments nutritifs, et dominée par le nard raide (Nardus stricta),
 Noyeraie - Population de noyers (Juglans regia)
 Noue</t>
         </is>
@@ -1050,7 +1088,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_des_formations_v%C3%A9g%C3%A9tales</t>
+          <t>Liste_des_formations_végétales</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1068,7 +1106,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">Oasis
 Oignonière - Plantation d'oignons
@@ -1088,7 +1128,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_des_formations_v%C3%A9g%C3%A9tales</t>
+          <t>Liste_des_formations_végétales</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1106,10 +1146,12 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Padang (Malaisie)
-Pajonal (Andes) : formation végétale graminéenne des Andes (Pérou, Bolivie)[5]. Ce terme emprunté à l'espagnol dérive de « paja brava », non donné localement à une espèce de graminée, Jarava ichu, qui caractérise ce peuplement[6].
+Pajonal (Andes) : formation végétale graminéenne des Andes (Pérou, Bolivie). Ce terme emprunté à l'espagnol dérive de « paja brava », non donné localement à une espèce de graminée, Jarava ichu, qui caractérise ce peuplement.
 Palmeraie - Plantation de palmiers (désigne le plus souvent le dattier, Phoenix dactylifera)
 Palud
 Pampa (Argentine) - Plaine à graminées
@@ -1154,7 +1196,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_des_formations_v%C3%A9g%C3%A9tales</t>
+          <t>Liste_des_formations_végétales</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1172,7 +1214,9 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Queñoal (Chili) : forêt de Polylepis</t>
         </is>
@@ -1184,7 +1228,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_des_formations_v%C3%A9g%C3%A9tales</t>
+          <t>Liste_des_formations_végétales</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1202,7 +1246,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Rabine (Haute-Bretagne) - Large allée bordée d'arbres en futaie.
 Radeau
@@ -1226,7 +1272,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_des_formations_v%C3%A9g%C3%A9tales</t>
+          <t>Liste_des_formations_végétales</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1244,7 +1290,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Sagne (Jura) - Tourbière
 Saline
@@ -1279,7 +1327,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_des_formations_v%C3%A9g%C3%A9tales</t>
+          <t>Liste_des_formations_végétales</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1297,7 +1345,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Taïga
 Taillis
@@ -1328,7 +1378,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_des_formations_v%C3%A9g%C3%A9tales</t>
+          <t>Liste_des_formations_végétales</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1346,7 +1396,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Varzea (Brésil) - Forêt inondable
 Vasière (Vendée) - Slikke
@@ -1363,7 +1415,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_des_formations_v%C3%A9g%C3%A9tales</t>
+          <t>Liste_des_formations_végétales</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1381,7 +1433,9 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Yeusaie - Chênaie de chêne vert (Quercus ilex)</t>
         </is>
@@ -1393,7 +1447,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_des_formations_v%C3%A9g%C3%A9tales</t>
+          <t>Liste_des_formations_végétales</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1411,7 +1465,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Xérobromion: pelouse calcaire xérophile</t>
         </is>
